--- a/classfiers/chatty/randomForest/chatty-randomForest-results.xlsx
+++ b/classfiers/chatty/randomForest/chatty-randomForest-results.xlsx
@@ -470,10 +470,10 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>0.5714285714285715</v>
       </c>
       <c r="E2" t="n">
         <v>1</v>
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0.7272727272727272</v>
       </c>
       <c r="E3" t="n">
-        <v>1</v>
+        <v>0.9903846153846153</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>0.6666666666666665</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0.9980676328502416</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0.888888888888889</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -546,13 +546,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8</v>
+        <v>0.7499999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0.9990338164251208</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>0.8833333333333332</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9333333333333333</v>
+        <v>0.6400000000000001</v>
       </c>
       <c r="D7" t="n">
-        <v>0.96</v>
+        <v>0.7208513708513709</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>0.9974972129319957</v>
       </c>
     </row>
   </sheetData>
